--- a/public/excelop/template/orderlist.xlsx
+++ b/public/excelop/template/orderlist.xlsx
@@ -4,28 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8265"/>
+    <workbookView windowWidth="20385" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
-  <si>
-    <t>&lt;%=_data_[0][0].date+"采购单"%&gt;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>&lt;%=_data_[0][0].date+"采购清单"%&gt;</t>
+  </si>
+  <si>
+    <t>门店</t>
   </si>
   <si>
     <t>材料名称</t>
   </si>
   <si>
-    <t>类别</t>
+    <t>材料类别</t>
+  </si>
+  <si>
+    <t>分类</t>
   </si>
   <si>
     <t>数量</t>
@@ -34,7 +40,13 @@
     <t>单位</t>
   </si>
   <si>
+    <t>&lt;%=rs1.store%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=rs1.no+"."+rs1.name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.cname%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.category%&gt;</t>
@@ -57,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -90,37 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -149,6 +130,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -179,35 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +216,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,6 +266,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,30 +314,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,6 +344,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,24 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +555,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,173 +598,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,6 +819,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1139,29 +1152,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="1" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:4">
+    <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1174,33 +1189,45 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="5:5">
-      <c r="E4" t="s">
-        <v>10</v>
+    <row r="4" spans="7:7">
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D3"/>
+  <autoFilter ref="A2:F2"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/excelop/template/orderlist.xlsx
+++ b/public/excelop/template/orderlist.xlsx
@@ -4,58 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8550"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$B$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>&lt;%=_data_[0][0].date+"采购清单"%&gt;</t>
-  </si>
-  <si>
-    <t>门店</t>
   </si>
   <si>
     <t>材料名称</t>
   </si>
   <si>
-    <t>材料类别</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
     <t>数量</t>
   </si>
   <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.store%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.no+"."+rs1.name%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.cname%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.category%&gt;</t>
+    <t>&lt;%=rs1.name%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.num%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.unit%&gt;</t>
   </si>
   <si>
     <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
@@ -69,8 +45,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -102,9 +78,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,9 +105,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,15 +114,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,16 +151,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +181,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,52 +220,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,163 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,17 +477,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,7 +505,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +542,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -566,35 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +582,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +594,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -820,6 +796,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1145,89 +1126,60 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:6">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="7:7">
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:B3">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
